--- a/data/econ_inputs.xlsx
+++ b/data/econ_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071F523-C275-E94F-B505-46A4EAE642E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A126F7-A952-BB46-ACF9-8D3F95F0D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" activeTab="2" xr2:uid="{84D0657C-0AE8-48A0-8A65-3279B3822131}"/>
   </bookViews>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9AA82-315B-4C5A-9BCE-D1CC4FD4EC76}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="211" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4746,8 +4746,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="AY48" sqref="AY48"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="139" workbookViewId="0">
+      <pane xSplit="3" ySplit="14" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8553,9 +8556,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8750,27 +8756,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F576E6C6-6A7D-495C-AD00-494A8E5A41FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{398EE452-35C4-492F-85EC-E008372D567C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="970bccd6-616f-44b9-b1d4-803881a69477"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="592254e2-2768-4de2-b2b7-0b8336437af6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8795,9 +8789,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{398EE452-35C4-492F-85EC-E008372D567C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F576E6C6-6A7D-495C-AD00-494A8E5A41FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="970bccd6-616f-44b9-b1d4-803881a69477"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="592254e2-2768-4de2-b2b7-0b8336437af6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>